--- a/biology/Microbiologie/Colwellia_agarivorans/Colwellia_agarivorans.xlsx
+++ b/biology/Microbiologie/Colwellia_agarivorans/Colwellia_agarivorans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colwellia agarivorans est une des espèces du genre de bactéries marines Colwellia. Ce sont des bacilles à Gram négatif de la famille des Colwelliaceae faisant partie de l'embranchement des Pseudomonadota.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de cette espèce est la suivante : a.ga.ri.vo’rans N.L. neut. n. agarum, agar, polysaccharide d'algue; L. inf. v. vorare, dévorer, digérer; N.L. part. adj. agarivorans, qui digère l'agar[1],[2].
-Historique
-L'analyse de la séquence nucléotidique de l'ARNr 16S de la souche QM50 a permis de classer cette bactérie parmi différentes espèces de Colwellia. Ce genre bactérien est phylogénétiquement inclus dans la classe des Pseudomonadota (ex Proteobacteria)[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette espèce est la suivante : a.ga.ri.vo’rans N.L. neut. n. agarum, agar, polysaccharide d'algue; L. inf. v. vorare, dévorer, digérer; N.L. part. adj. agarivorans, qui digère l'agar,.
 </t>
         </is>
       </c>
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colwellia agarivorans est une bactérie anaérobie facultative à Gram négatif. Cette espèce est formée des bacilles faiblement positifs pour les tests catalase et oxydase[1].
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse de la séquence nucléotidique de l'ARNr 16S de la souche QM50 a permis de classer cette bactérie parmi différentes espèces de Colwellia. Ce genre bactérien est phylogénétiquement inclus dans la classe des Pseudomonadota (ex Proteobacteria).
 </t>
         </is>
       </c>
@@ -573,12 +594,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colwellia agarivorans est une bactérie anaérobie facultative à Gram négatif. Cette espèce est formée des bacilles faiblement positifs pour les tests catalase et oxydase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Colwellia_agarivorans</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colwellia_agarivorans</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche type de cette espèce a été isolé dans les eaux côtières d'un ferme aquacole au large de Qingdao en Chine[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type de cette espèce a été isolé dans les eaux côtières d'un ferme aquacole au large de Qingdao en Chine.
 </t>
         </is>
       </c>
